--- a/Base de datos Probabilidad y Estadistica (09-02-2023).xlsx
+++ b/Base de datos Probabilidad y Estadistica (09-02-2023).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumnos-\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10E3E77E-2170-49F3-B4F2-47B0355CA6F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0388CE3-FDF4-4846-8F27-CBF7655A0813}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>Trabajador</t>
   </si>
@@ -177,6 +177,30 @@
   </si>
   <si>
     <t>Frec.relativa acumulada</t>
+  </si>
+  <si>
+    <t>(17;24)</t>
+  </si>
+  <si>
+    <t>(24;31)</t>
+  </si>
+  <si>
+    <t>(31;38)</t>
+  </si>
+  <si>
+    <t>(38;45)</t>
+  </si>
+  <si>
+    <t>(45;52)</t>
+  </si>
+  <si>
+    <t>(52;59)</t>
+  </si>
+  <si>
+    <t>(59;66)</t>
+  </si>
+  <si>
+    <t>(66;73)</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1332,760 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$28:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>(17;24)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(24;31)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(31;38)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(38;45)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(45;52)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(52;59)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(59;66)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(66;73)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$F$28:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.14666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.666666666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6666666666666669E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A622-4081-8563-CE04CE8B1B92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="842156223"/>
+        <c:axId val="841701167"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="842156223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="841701167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="841701167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="842156223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$28:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>(17;24)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(24;31)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(31;38)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(38;45)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(45;52)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(52;59)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(59;66)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(66;73)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$H$28:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.14666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-422C-4F9C-BF52-11B16851FB3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1059938175"/>
+        <c:axId val="784813807"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1059938175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="784813807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="784813807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1059938175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1810,6 +2587,1025 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2356,6 +4152,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>443278</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>443278</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>109903</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6794A3D-9FCC-48AC-96AA-78AF60CD0845}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>545855</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>126754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B1264C-E60A-4854-9A78-FBFCC780E958}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7025,41 +8893,41 @@
       </c>
       <c r="Q152">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S152">
         <f t="shared" ref="S152:S155" ca="1" si="1">RANDBETWEEN(4000000,7500000)</f>
-        <v>6844690</v>
+        <v>4755088</v>
       </c>
     </row>
     <row r="153" spans="1:19">
       <c r="I153" s="1"/>
       <c r="P153">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q153">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S153">
         <f t="shared" ca="1" si="1"/>
-        <v>5706236</v>
+        <v>7003775</v>
       </c>
     </row>
     <row r="154" spans="1:19">
       <c r="I154" s="1"/>
       <c r="P154">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q154">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S154">
         <f t="shared" ca="1" si="1"/>
-        <v>4042015</v>
+        <v>4463235</v>
       </c>
     </row>
     <row r="155" spans="1:19">
@@ -7070,11 +8938,11 @@
       </c>
       <c r="Q155">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S155">
         <f t="shared" ca="1" si="1"/>
-        <v>7305071</v>
+        <v>4251431</v>
       </c>
     </row>
   </sheetData>
@@ -7091,8 +8959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H28" activeCellId="1" sqref="A28:A35 H28:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7248,7 +9116,7 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="1:8">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -7263,7 +9131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="1:8">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -7275,7 +9143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="1:8">
       <c r="C21" t="s">
         <v>25</v>
       </c>
@@ -7284,7 +9152,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="1:8">
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -7293,7 +9161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="1:8">
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -7308,12 +9176,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="1:8">
       <c r="B24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="45">
+    <row r="26" spans="1:8" ht="45">
       <c r="B26" s="32" t="s">
         <v>30</v>
       </c>
@@ -7334,7 +9202,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="1:8">
       <c r="B27" s="26" t="s">
         <v>31</v>
       </c>
@@ -7357,7 +9225,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
       <c r="B28" s="2">
         <v>17</v>
       </c>
@@ -7386,7 +9257,10 @@
         <v>0.14666666666666667</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
       <c r="B29" s="2">
         <f>C28</f>
         <v>24</v>
@@ -7416,7 +9290,10 @@
         <v>0.45333333333333331</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
       <c r="B30" s="2">
         <f t="shared" ref="B30:B35" si="3">C29</f>
         <v>31</v>
@@ -7446,7 +9323,10 @@
         <v>0.60666666666666669</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
       <c r="B31" s="2">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -7476,7 +9356,10 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
       <c r="B32" s="2">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -7507,6 +9390,9 @@
       </c>
     </row>
     <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
       <c r="B33" s="2">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -7537,6 +9423,9 @@
       </c>
     </row>
     <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
       <c r="B34" s="2">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -7567,6 +9456,9 @@
       </c>
     </row>
     <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
       <c r="B35" s="2">
         <f t="shared" si="3"/>
         <v>66</v>
